--- a/branches/jembi-contrib-fresh/ValueSet-vs-marital-status.xlsx
+++ b/branches/jembi-contrib-fresh/ValueSet-vs-marital-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:37:47+00:00</t>
+    <t>2021-09-07T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/jembi-contrib-fresh/ValueSet-vs-marital-status.xlsx
+++ b/branches/jembi-contrib-fresh/ValueSet-vs-marital-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T11:28:37+00:00</t>
+    <t>2021-09-16T07:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
